--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3113.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3113.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.719056527626656</v>
+        <v>1.448123574256897</v>
       </c>
       <c r="B1">
-        <v>1.986332414808935</v>
+        <v>2.342830419540405</v>
       </c>
       <c r="C1">
-        <v>2.512482080439841</v>
+        <v>2.908051013946533</v>
       </c>
       <c r="D1">
-        <v>5.128460583959431</v>
+        <v>3.377647876739502</v>
       </c>
       <c r="E1">
-        <v>1.198837947330013</v>
+        <v>2.079902172088623</v>
       </c>
     </row>
   </sheetData>
